--- a/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
+++ b/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T13:42:28+00:00</t>
+    <t>2023-09-05T17:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
+++ b/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T17:16:16+00:00</t>
+    <t>2023-09-07T16:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
+++ b/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T16:36:05+00:00</t>
+    <t>2023-09-07T16:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
+++ b/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T16:47:20+00:00</t>
+    <t>2023-09-08T07:36:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
+++ b/ig/main/ValueSet-ba30aa2f-eb90-45ce-9afe-a116918b5c55.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T07:36:11+00:00</t>
+    <t>2023-09-09T14:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
